--- a/IP Scope.xlsx
+++ b/IP Scope.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>IP Address</t>
   </si>
@@ -36,6 +36,39 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>Subnet</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>IP Scope</t>
+  </si>
+  <si>
+    <t>192.168.3.X</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>192.168.3.254</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>192.168.0.101</t>
+  </si>
+  <si>
+    <t>192.168.0.102</t>
   </si>
 </sst>
 </file>
@@ -88,9 +121,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,22 +408,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -394,10 +432,172 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>72</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>73</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>74</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/IP Scope.xlsx
+++ b/IP Scope.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>IP Address</t>
   </si>
@@ -69,6 +69,81 @@
   </si>
   <si>
     <t>192.168.0.102</t>
+  </si>
+  <si>
+    <t>CCU PC</t>
+  </si>
+  <si>
+    <t>CCU Mon 02/03</t>
+  </si>
+  <si>
+    <t>CCU Mon 01</t>
+  </si>
+  <si>
+    <t>CCU Mon 04/05</t>
+  </si>
+  <si>
+    <t>CCU Mon 06/07</t>
+  </si>
+  <si>
+    <t>RTR Panel 01 (CCU)</t>
+  </si>
+  <si>
+    <t>ACR PC</t>
+  </si>
+  <si>
+    <t>Audio Mixer 01</t>
+  </si>
+  <si>
+    <t>ACR Mon 01</t>
+  </si>
+  <si>
+    <t>ACR Mon 02/03</t>
+  </si>
+  <si>
+    <t>RTR Panel 02 (ACR)</t>
+  </si>
+  <si>
+    <t>VTR 01</t>
+  </si>
+  <si>
+    <t>VTR 02</t>
+  </si>
+  <si>
+    <t>VT Mon 01/02</t>
+  </si>
+  <si>
+    <t>VT Mon 03/04</t>
+  </si>
+  <si>
+    <t>CG 02</t>
+  </si>
+  <si>
+    <t>VMX PC</t>
+  </si>
+  <si>
+    <t>VMX 01</t>
+  </si>
+  <si>
+    <t>RTR 01</t>
+  </si>
+  <si>
+    <t>Frame 01</t>
+  </si>
+  <si>
+    <t>CG 01</t>
+  </si>
+  <si>
+    <t>Prompt 01</t>
+  </si>
+  <si>
+    <t>VTR 03</t>
+  </si>
+  <si>
+    <t>VTR 04</t>
+  </si>
+  <si>
+    <t>VMX Tub</t>
   </si>
 </sst>
 </file>
@@ -412,19 +487,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,10 +517,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>70</v>
       </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
@@ -452,10 +531,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>71</v>
       </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
@@ -463,10 +545,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>72</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
@@ -474,10 +559,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>73</v>
       </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
@@ -485,19 +573,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>75</v>
       </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -505,99 +599,156 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/IP Scope.xlsx
+++ b/IP Scope.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>IP Address</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>RTR 01</t>
-  </si>
-  <si>
-    <t>Frame 01</t>
   </si>
   <si>
     <t>CG 01</t>
@@ -487,7 +484,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,7 +561,7 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>12</v>
@@ -590,7 +587,7 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>5</v>
@@ -611,9 +608,6 @@
       <c r="A9">
         <v>77</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -628,7 +622,7 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -740,7 +734,7 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -748,7 +742,7 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/IP Scope.xlsx
+++ b/IP Scope.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Dwen\Dropbox\SouthSeas Upgrade 2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ssftv-studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>IP Address</t>
   </si>
@@ -32,18 +32,6 @@
     <t>Device</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Hostname</t>
-  </si>
-  <si>
-    <t>VLAN</t>
-  </si>
-  <si>
     <t>Subnet</t>
   </si>
   <si>
@@ -53,24 +41,12 @@
     <t>IP Scope</t>
   </si>
   <si>
-    <t>192.168.3.X</t>
-  </si>
-  <si>
     <t>Gateway</t>
   </si>
   <si>
-    <t>192.168.3.254</t>
-  </si>
-  <si>
     <t>DNS</t>
   </si>
   <si>
-    <t>192.168.0.101</t>
-  </si>
-  <si>
-    <t>192.168.0.102</t>
-  </si>
-  <si>
     <t>CCU PC</t>
   </si>
   <si>
@@ -101,9 +77,6 @@
     <t>ACR Mon 02/03</t>
   </si>
   <si>
-    <t>RTR Panel 02 (ACR)</t>
-  </si>
-  <si>
     <t>VTR 01</t>
   </si>
   <si>
@@ -137,16 +110,157 @@
     <t>VTR 03</t>
   </si>
   <si>
-    <t>VTR 04</t>
-  </si>
-  <si>
     <t>VMX Tub</t>
+  </si>
+  <si>
+    <t>10.2.68.X</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>C0-3F-D5-63-51-3A</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>NUC</t>
+  </si>
+  <si>
+    <t>C0-3F-D5-66-79-A3</t>
+  </si>
+  <si>
+    <t>00-12-3F-42-8A-C5</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Optiplex GX620</t>
+  </si>
+  <si>
+    <t>00-1D-09-0F-F2-4C</t>
+  </si>
+  <si>
+    <t>C0-3F-D5-6A-FE-B0</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-D1-AC</t>
+  </si>
+  <si>
+    <t>Blackmagic</t>
+  </si>
+  <si>
+    <t>Smart Video Hub</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-59-ED</t>
+  </si>
+  <si>
+    <t>ATEM 2/ME Mixer</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-22-54-89</t>
+  </si>
+  <si>
+    <t>ATEM Panel</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-48-43</t>
+  </si>
+  <si>
+    <t>Smart Video Hub Control</t>
+  </si>
+  <si>
+    <t>00-15-64-02-8C-D0</t>
+  </si>
+  <si>
+    <t>Behringer</t>
+  </si>
+  <si>
+    <t>X32</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-53-22</t>
+  </si>
+  <si>
+    <t>Smartscope Duo 4K</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-33-DF</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-33-D3</t>
+  </si>
+  <si>
+    <t>Smartview 4K</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-2A-55</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-33-DB</t>
+  </si>
+  <si>
+    <t>Smartscope Duo</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-35-D7</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-35-75</t>
+  </si>
+  <si>
+    <t>7c-2e-dd-33-d2-71</t>
+  </si>
+  <si>
+    <t>Hyperdeck Studio Pro</t>
+  </si>
+  <si>
+    <t>7C-2E-DD-33-5C-31</t>
+  </si>
+  <si>
+    <t>FC-AA-14-0E-73-0A</t>
+  </si>
+  <si>
+    <t>VTR 04 / Stream</t>
+  </si>
+  <si>
+    <t>Precision 1500</t>
+  </si>
+  <si>
+    <t>00-26-B9-73-E0-93</t>
+  </si>
+  <si>
+    <t>00-13-72-31-1D-B4</t>
+  </si>
+  <si>
+    <t>Dimension C521</t>
+  </si>
+  <si>
+    <t>10.2.68.1</t>
+  </si>
+  <si>
+    <t>10.6.0.20</t>
+  </si>
+  <si>
+    <t>10.6.2.20</t>
+  </si>
+  <si>
+    <t>Smartscope 4K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,13 +307,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,21 +615,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
     <col min="8" max="8" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,106 +638,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>71</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>73</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
+      <c r="B7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>76</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -613,136 +802,268 @@
       <c r="A10">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>79</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
+      <c r="B12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>81</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>82</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
+      <c r="B14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>84</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>85</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>87</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>88</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>89</v>
       </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>91</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>92</v>
       </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>93</v>
       </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>94</v>
       </c>
-      <c r="B26" t="s">
-        <v>37</v>
+      <c r="B26" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
